--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -460,8 +456,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>35431</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/01/1997</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -478,8 +476,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>35462</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/02/1997</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -496,8 +496,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>35490</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/03/1997</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -514,8 +516,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>35521</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01/04/1997</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -532,8 +536,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>35551</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01/05/1997</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -550,8 +556,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>35582</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01/06/1997</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -568,8 +576,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>35612</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/07/1997</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -586,8 +596,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>35643</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/08/1997</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -604,8 +616,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>35674</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/09/1997</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -622,8 +636,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>35704</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/10/1997</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -640,8 +656,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>35735</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/11/1997</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -658,8 +676,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>35765</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/12/1997</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -676,8 +696,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>35431</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/01/1997</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -694,8 +716,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>35462</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/02/1997</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -712,8 +736,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>35490</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/03/1997</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -730,8 +756,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>35521</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/04/1997</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -748,8 +776,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>35551</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/05/1997</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -766,8 +796,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>35582</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/06/1997</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -784,8 +816,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>35612</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/07/1997</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -802,8 +836,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>35643</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/08/1997</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -820,8 +856,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>35674</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/1997</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -838,8 +876,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>35704</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/10/1997</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -856,8 +896,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>35735</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/11/1997</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -874,8 +916,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>35765</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/12/1997</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -892,8 +936,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>35796</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/01/1998</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -910,8 +956,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>35827</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>01/02/1998</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -928,8 +976,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>35855</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>01/03/1998</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -946,8 +996,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>35886</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>01/04/1998</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -964,8 +1016,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>35916</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>01/05/1998</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -982,8 +1036,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>35947</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>01/06/1998</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1000,8 +1056,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>35977</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>01/07/1998</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1018,8 +1076,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>36008</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>01/08/1998</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1036,8 +1096,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>36039</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>01/09/1998</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1054,8 +1116,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>36069</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>01/10/1998</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1072,8 +1136,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>36100</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>01/11/1998</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1090,8 +1156,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>36130</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>01/12/1998</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1108,8 +1176,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>35796</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>01/01/1998</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1126,8 +1196,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>35827</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>01/02/1998</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1144,8 +1216,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>35855</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>01/03/1998</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1162,8 +1236,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>35886</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>01/04/1998</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1180,8 +1256,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>35916</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>01/05/1998</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1198,8 +1276,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>35947</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>01/06/1998</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1216,8 +1296,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>35977</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>01/07/1998</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1234,8 +1316,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>36008</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>01/08/1998</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1252,8 +1336,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>36039</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>01/09/1998</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1270,8 +1356,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>36069</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01/10/1998</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1288,8 +1376,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>36100</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01/11/1998</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1306,8 +1396,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>36130</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01/12/1998</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1324,8 +1416,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>36161</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01/01/1999</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1342,8 +1436,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>36192</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01/02/1999</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1360,8 +1456,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>36220</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01/03/1999</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1378,8 +1476,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>36251</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01/04/1999</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1396,8 +1496,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>36281</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01/05/1999</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1414,8 +1516,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>36312</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01/06/1999</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1432,8 +1536,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>36342</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01/07/1999</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1450,8 +1556,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>36373</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01/08/1999</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1468,8 +1576,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>36404</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01/09/1999</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1486,8 +1596,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>36434</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01/10/1999</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1504,8 +1616,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>36465</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01/11/1999</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1522,8 +1636,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>36495</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01/12/1999</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1540,8 +1656,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>36161</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01/01/1999</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1558,8 +1676,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>36192</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01/02/1999</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1576,8 +1696,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>36220</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01/03/1999</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1594,8 +1716,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>36251</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01/04/1999</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1612,8 +1736,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>36281</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>01/05/1999</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1630,8 +1756,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>36312</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01/06/1999</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1648,8 +1776,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>36342</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01/07/1999</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1666,8 +1796,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>36373</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>01/08/1999</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1684,8 +1816,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>36404</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01/09/1999</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1702,8 +1836,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>36434</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01/10/1999</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1720,8 +1856,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>36465</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01/11/1999</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1738,8 +1876,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>36495</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>01/12/1999</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1756,8 +1896,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>36526</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>01/01/2000</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1774,8 +1916,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>36557</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>01/02/2000</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1792,8 +1936,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>36586</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>01/03/2000</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1810,8 +1956,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>36617</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>01/04/2000</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1828,8 +1976,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>36647</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>01/05/2000</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1846,8 +1996,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>36678</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>01/06/2000</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1864,8 +2016,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>36708</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1882,8 +2036,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>36739</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>01/08/2000</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1900,8 +2056,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>36770</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>01/09/2000</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1918,8 +2076,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>36800</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>01/10/2000</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1936,8 +2096,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>36831</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>01/11/2000</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1954,8 +2116,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>36861</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>01/12/2000</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1972,8 +2136,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>36526</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>01/01/2000</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1990,8 +2156,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>36557</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>01/02/2000</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2008,8 +2176,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>36586</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>01/03/2000</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2026,8 +2196,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>36617</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>01/04/2000</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2044,8 +2216,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>36647</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01/05/2000</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2062,8 +2236,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>36678</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/06/2000</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2080,8 +2256,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>36708</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2098,8 +2276,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>36739</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/08/2000</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2116,8 +2296,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>36770</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>01/09/2000</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2134,8 +2316,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>36800</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>01/10/2000</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2152,8 +2336,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>36831</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>01/11/2000</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2170,8 +2356,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>36861</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>01/12/2000</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2188,8 +2376,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>36892</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>01/01/2001</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2206,8 +2396,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>36923</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>01/02/2001</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2224,8 +2416,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>36951</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>01/03/2001</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2242,8 +2436,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>36982</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>01/04/2001</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2260,8 +2456,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>37012</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>01/05/2001</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2278,8 +2476,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>37043</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>01/06/2001</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2296,8 +2496,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>37073</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>01/07/2001</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2314,8 +2516,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>37104</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>01/08/2001</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2332,8 +2536,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>37135</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>01/09/2001</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2350,8 +2556,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>37165</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>01/10/2001</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2368,8 +2576,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>37196</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>01/11/2001</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2386,8 +2596,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>37226</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>01/12/2001</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2404,8 +2616,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>36892</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>01/01/2001</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2422,8 +2636,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>36923</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>01/02/2001</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2440,8 +2656,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>36951</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>01/03/2001</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2458,8 +2676,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>36982</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>01/04/2001</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2476,8 +2696,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>37012</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>01/05/2001</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2494,8 +2716,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>37043</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>01/06/2001</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2512,8 +2736,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>37073</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>01/07/2001</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2530,8 +2756,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>37104</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>01/08/2001</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2548,8 +2776,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>37135</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>01/09/2001</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2566,8 +2796,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>37165</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>01/10/2001</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2584,8 +2816,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>37196</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>01/11/2001</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2602,8 +2836,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>37226</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>01/12/2001</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2620,8 +2856,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>37257</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>01/01/2002</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2638,8 +2876,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>37288</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>01/02/2002</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2656,8 +2896,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>37316</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>01/03/2002</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2674,8 +2916,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>37347</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>01/04/2002</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2692,8 +2936,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>37377</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>01/05/2002</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2710,8 +2956,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>37408</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>01/06/2002</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2728,8 +2976,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>37438</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>01/07/2002</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2746,8 +2996,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>37469</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>01/08/2002</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2764,8 +3016,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>37500</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>01/09/2002</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2782,8 +3036,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>37530</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>01/10/2002</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2800,8 +3056,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>37561</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>01/11/2002</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2818,8 +3076,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>37591</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>01/12/2002</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2836,8 +3096,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>37257</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>01/01/2002</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2854,8 +3116,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>37288</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>01/02/2002</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2872,8 +3136,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>37316</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>01/03/2002</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2890,8 +3156,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>37347</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>01/04/2002</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2908,8 +3176,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>37377</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>01/05/2002</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2926,8 +3196,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>37408</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>01/06/2002</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2944,8 +3216,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>37438</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>01/07/2002</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2962,8 +3236,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>37469</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>01/08/2002</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2980,8 +3256,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>37500</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>01/09/2002</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2998,8 +3276,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>37530</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>01/10/2002</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3016,8 +3296,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>37561</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>01/11/2002</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3034,8 +3316,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>37591</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>01/12/2002</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3052,8 +3336,10 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>37622</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>01/01/2003</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3070,8 +3356,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>37653</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>01/02/2003</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3088,8 +3376,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
-        <v>37681</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>01/03/2003</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3106,8 +3396,10 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
-        <v>37712</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>01/04/2003</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3124,8 +3416,10 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
-        <v>37742</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>01/05/2003</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3142,8 +3436,10 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
-        <v>37773</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>01/06/2003</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3160,8 +3456,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>37803</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>01/07/2003</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3178,8 +3476,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
-        <v>37834</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>01/08/2003</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3196,8 +3496,10 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
-        <v>37865</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>01/09/2003</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -3214,8 +3516,10 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
-        <v>37895</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>01/10/2003</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3232,8 +3536,10 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
-        <v>37926</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>01/11/2003</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -3250,8 +3556,10 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>37956</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>01/12/2003</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -3268,8 +3576,10 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
-        <v>37622</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>01/01/2003</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -3286,8 +3596,10 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
-        <v>37653</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>01/02/2003</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -3304,8 +3616,10 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
-        <v>37681</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>01/03/2003</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -3322,8 +3636,10 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
-        <v>37712</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>01/04/2003</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -3340,8 +3656,10 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>37742</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>01/05/2003</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -3358,8 +3676,10 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
-        <v>37773</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>01/06/2003</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -3376,8 +3696,10 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
-        <v>37803</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>01/07/2003</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -3394,8 +3716,10 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
-        <v>37834</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>01/08/2003</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3412,8 +3736,10 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
-        <v>37865</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>01/09/2003</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3430,8 +3756,10 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
-        <v>37895</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>01/10/2003</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3448,8 +3776,10 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
-        <v>37926</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>01/11/2003</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3466,8 +3796,10 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
-        <v>37956</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>01/12/2003</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3484,8 +3816,10 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
-        <v>37987</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>01/01/2004</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3502,8 +3836,10 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
-        <v>38018</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>01/02/2004</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3520,8 +3856,10 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
-        <v>38047</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>01/03/2004</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3538,8 +3876,10 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
-        <v>38078</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>01/04/2004</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3556,8 +3896,10 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
-        <v>38108</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>01/05/2004</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3574,8 +3916,10 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
-        <v>38139</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>01/06/2004</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3592,8 +3936,10 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
-        <v>38169</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>01/07/2004</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3610,8 +3956,10 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
-        <v>38200</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>01/08/2004</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3628,8 +3976,10 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
-        <v>38231</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>01/09/2004</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3646,8 +3996,10 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
-        <v>38261</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>01/10/2004</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3664,8 +4016,10 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
-        <v>38292</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>01/11/2004</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3682,8 +4036,10 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
-        <v>38322</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>01/12/2004</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3700,8 +4056,10 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
-        <v>37987</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>01/01/2004</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3718,8 +4076,10 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>38018</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>01/02/2004</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3736,8 +4096,10 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
-        <v>38047</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>01/03/2004</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3754,8 +4116,10 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
-        <v>38078</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>01/04/2004</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3772,8 +4136,10 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
-        <v>38108</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>01/05/2004</t>
+        </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3790,8 +4156,10 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
-        <v>38139</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>01/06/2004</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3808,8 +4176,10 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
-        <v>38169</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>01/07/2004</t>
+        </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3826,8 +4196,10 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>38200</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>01/08/2004</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3844,8 +4216,10 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
-        <v>38231</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>01/09/2004</t>
+        </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3862,8 +4236,10 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
-        <v>38261</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>01/10/2004</t>
+        </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3880,8 +4256,10 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
-        <v>38292</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>01/11/2004</t>
+        </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3898,8 +4276,10 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
-        <v>38322</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>01/12/2004</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3916,8 +4296,10 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
-        <v>38353</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>01/01/2005</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3934,8 +4316,10 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
-        <v>38384</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>01/02/2005</t>
+        </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3952,8 +4336,10 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
-        <v>38412</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>01/03/2005</t>
+        </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3970,8 +4356,10 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
-        <v>38443</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>01/04/2005</t>
+        </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3988,8 +4376,10 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
-        <v>38473</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>01/05/2005</t>
+        </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -4006,8 +4396,10 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
-        <v>38504</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>01/06/2005</t>
+        </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -4024,8 +4416,10 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
-        <v>38534</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>01/07/2005</t>
+        </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -4042,8 +4436,10 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
-        <v>38565</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>01/08/2005</t>
+        </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -4060,8 +4456,10 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
-        <v>38596</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>01/09/2005</t>
+        </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -4078,8 +4476,10 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
-        <v>38626</v>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>01/10/2005</t>
+        </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -4096,8 +4496,10 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>38657</v>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>01/11/2005</t>
+        </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -4114,8 +4516,10 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>38687</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>01/12/2005</t>
+        </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -4132,8 +4536,10 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>38353</v>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>01/01/2005</t>
+        </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -4150,8 +4556,10 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>38384</v>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>01/02/2005</t>
+        </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -4168,8 +4576,10 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>38412</v>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>01/03/2005</t>
+        </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -4186,8 +4596,10 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
-        <v>38443</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>01/04/2005</t>
+        </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4204,8 +4616,10 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
-        <v>38473</v>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>01/05/2005</t>
+        </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -4222,8 +4636,10 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
-        <v>38504</v>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>01/06/2005</t>
+        </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -4240,8 +4656,10 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
-        <v>38534</v>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>01/07/2005</t>
+        </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -4258,8 +4676,10 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
-        <v>38565</v>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>01/08/2005</t>
+        </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4276,8 +4696,10 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
-        <v>38596</v>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>01/09/2005</t>
+        </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -4294,8 +4716,10 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>38626</v>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>01/10/2005</t>
+        </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4312,8 +4736,10 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
-        <v>38657</v>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>01/11/2005</t>
+        </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4330,8 +4756,10 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>38687</v>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>01/12/2005</t>
+        </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4348,8 +4776,10 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>38718</v>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>01/01/2006</t>
+        </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -4366,8 +4796,10 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
-        <v>38749</v>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>01/02/2006</t>
+        </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -4384,8 +4816,10 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
-        <v>38777</v>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>01/03/2006</t>
+        </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -4402,8 +4836,10 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
-        <v>38808</v>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>01/04/2006</t>
+        </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -4420,8 +4856,10 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
-        <v>38838</v>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>01/05/2006</t>
+        </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -4438,8 +4876,10 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
-        <v>38869</v>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>01/06/2006</t>
+        </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -4456,8 +4896,10 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>38899</v>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>01/07/2006</t>
+        </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -4474,8 +4916,10 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>38930</v>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>01/08/2006</t>
+        </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -4492,8 +4936,10 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
-        <v>38961</v>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>01/09/2006</t>
+        </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -4510,8 +4956,10 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
-        <v>38991</v>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>01/10/2006</t>
+        </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4528,8 +4976,10 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
-        <v>39022</v>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>01/11/2006</t>
+        </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4546,8 +4996,10 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
-        <v>39052</v>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>01/12/2006</t>
+        </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4564,8 +5016,10 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
-        <v>38718</v>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>01/01/2006</t>
+        </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4582,8 +5036,10 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
-        <v>38749</v>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>01/02/2006</t>
+        </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4600,8 +5056,10 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
-        <v>38777</v>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>01/03/2006</t>
+        </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4618,8 +5076,10 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
-        <v>38808</v>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>01/04/2006</t>
+        </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4636,8 +5096,10 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
-        <v>38838</v>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>01/05/2006</t>
+        </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4654,8 +5116,10 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
-        <v>38869</v>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>01/06/2006</t>
+        </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4672,8 +5136,10 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>38899</v>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>01/07/2006</t>
+        </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4690,8 +5156,10 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>38930</v>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>01/08/2006</t>
+        </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4708,8 +5176,10 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>38961</v>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>01/09/2006</t>
+        </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4726,8 +5196,10 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>38991</v>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>01/10/2006</t>
+        </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4744,8 +5216,10 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>39022</v>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>01/11/2006</t>
+        </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4762,8 +5236,10 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
-        <v>39052</v>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>01/12/2006</t>
+        </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4780,8 +5256,10 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
-        <v>39083</v>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>01/01/2007</t>
+        </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4798,8 +5276,10 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
-        <v>39114</v>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>01/02/2007</t>
+        </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4816,8 +5296,10 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
-        <v>39142</v>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>01/03/2007</t>
+        </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4834,8 +5316,10 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
-        <v>39173</v>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>01/04/2007</t>
+        </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4852,8 +5336,10 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
-        <v>39203</v>
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>01/05/2007</t>
+        </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4870,8 +5356,10 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
-        <v>39234</v>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>01/06/2007</t>
+        </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4888,8 +5376,10 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
-        <v>39264</v>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>01/07/2007</t>
+        </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4906,8 +5396,10 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
-        <v>39295</v>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>01/08/2007</t>
+        </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4924,8 +5416,10 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
-        <v>39326</v>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>01/09/2007</t>
+        </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4942,8 +5436,10 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
-        <v>39356</v>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>01/10/2007</t>
+        </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4960,8 +5456,10 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
-        <v>39387</v>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>01/11/2007</t>
+        </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4978,8 +5476,10 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
-        <v>39417</v>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>01/12/2007</t>
+        </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4996,8 +5496,10 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
-        <v>39083</v>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>01/01/2007</t>
+        </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -5014,8 +5516,10 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
-        <v>39114</v>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>01/02/2007</t>
+        </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -5032,8 +5536,10 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
-        <v>39142</v>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>01/03/2007</t>
+        </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -5050,8 +5556,10 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
-        <v>39173</v>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>01/04/2007</t>
+        </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -5068,8 +5576,10 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
-        <v>39203</v>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>01/05/2007</t>
+        </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -5086,8 +5596,10 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
-        <v>39234</v>
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>01/06/2007</t>
+        </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -5104,8 +5616,10 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
-        <v>39264</v>
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>01/07/2007</t>
+        </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -5122,8 +5636,10 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
-        <v>39295</v>
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>01/08/2007</t>
+        </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -5140,8 +5656,10 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
-        <v>39326</v>
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>01/09/2007</t>
+        </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -5158,8 +5676,10 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
-        <v>39356</v>
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>01/10/2007</t>
+        </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -5176,8 +5696,10 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
-        <v>39387</v>
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>01/11/2007</t>
+        </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -5194,8 +5716,10 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
-        <v>39417</v>
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>01/12/2007</t>
+        </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -5212,8 +5736,10 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
-        <v>39448</v>
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>01/01/2008</t>
+        </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -5230,8 +5756,10 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
-        <v>39479</v>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>01/02/2008</t>
+        </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -5248,8 +5776,10 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
-        <v>39508</v>
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>01/03/2008</t>
+        </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -5266,8 +5796,10 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
-        <v>39539</v>
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>01/04/2008</t>
+        </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -5284,8 +5816,10 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
-        <v>39569</v>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>01/05/2008</t>
+        </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -5302,8 +5836,10 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
-        <v>39600</v>
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>01/06/2008</t>
+        </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -5320,8 +5856,10 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
-        <v>39630</v>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>01/07/2008</t>
+        </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -5338,8 +5876,10 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
-        <v>39661</v>
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>01/08/2008</t>
+        </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -5356,8 +5896,10 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
-        <v>39692</v>
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>01/09/2008</t>
+        </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -5374,8 +5916,10 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
-        <v>39722</v>
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>01/10/2008</t>
+        </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -5392,8 +5936,10 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
-        <v>39753</v>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>01/11/2008</t>
+        </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -5410,8 +5956,10 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
-        <v>39783</v>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>01/12/2008</t>
+        </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -5428,8 +5976,10 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
-        <v>39448</v>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>01/01/2008</t>
+        </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -5446,8 +5996,10 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
-        <v>39479</v>
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>01/02/2008</t>
+        </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -5464,8 +6016,10 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
-        <v>39508</v>
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>01/03/2008</t>
+        </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -5482,8 +6036,10 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
-        <v>39539</v>
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>01/04/2008</t>
+        </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -5500,8 +6056,10 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
-        <v>39569</v>
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>01/05/2008</t>
+        </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -5518,8 +6076,10 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
-        <v>39600</v>
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>01/06/2008</t>
+        </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -5536,8 +6096,10 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
-        <v>39630</v>
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>01/07/2008</t>
+        </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -5554,8 +6116,10 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
-        <v>39661</v>
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>01/08/2008</t>
+        </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -5572,8 +6136,10 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
-        <v>39692</v>
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>01/09/2008</t>
+        </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -5590,8 +6156,10 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
-        <v>39722</v>
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>01/10/2008</t>
+        </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -5608,8 +6176,10 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
-        <v>39753</v>
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>01/11/2008</t>
+        </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -5626,8 +6196,10 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="n">
-        <v>39783</v>
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>01/12/2008</t>
+        </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -5644,8 +6216,10 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2" t="n">
-        <v>39814</v>
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>01/01/2009</t>
+        </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5662,8 +6236,10 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
-        <v>39845</v>
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>01/02/2009</t>
+        </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5680,8 +6256,10 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
-        <v>39873</v>
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>01/03/2009</t>
+        </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5698,8 +6276,10 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
-        <v>39904</v>
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>01/04/2009</t>
+        </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5716,8 +6296,10 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="2" t="n">
-        <v>39934</v>
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>01/05/2009</t>
+        </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5734,8 +6316,10 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="n">
-        <v>39965</v>
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>01/06/2009</t>
+        </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5752,8 +6336,10 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="n">
-        <v>39995</v>
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5770,8 +6356,10 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="n">
-        <v>40026</v>
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>01/08/2009</t>
+        </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5788,8 +6376,10 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="n">
-        <v>40057</v>
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>01/09/2009</t>
+        </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5806,8 +6396,10 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="n">
-        <v>40087</v>
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>01/10/2009</t>
+        </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5824,8 +6416,10 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2" t="n">
-        <v>40118</v>
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>01/11/2009</t>
+        </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5842,8 +6436,10 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="n">
-        <v>40148</v>
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>01/12/2009</t>
+        </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5860,8 +6456,10 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="n">
-        <v>39814</v>
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>01/01/2009</t>
+        </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5878,8 +6476,10 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="n">
-        <v>39845</v>
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>01/02/2009</t>
+        </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5896,8 +6496,10 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2" t="n">
-        <v>39873</v>
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>01/03/2009</t>
+        </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5914,8 +6516,10 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2" t="n">
-        <v>39904</v>
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>01/04/2009</t>
+        </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5932,8 +6536,10 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2" t="n">
-        <v>39934</v>
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>01/05/2009</t>
+        </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5950,8 +6556,10 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2" t="n">
-        <v>39965</v>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>01/06/2009</t>
+        </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5968,8 +6576,10 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="2" t="n">
-        <v>39995</v>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>01/07/2009</t>
+        </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5986,8 +6596,10 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="2" t="n">
-        <v>40026</v>
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>01/08/2009</t>
+        </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -6004,8 +6616,10 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="2" t="n">
-        <v>40057</v>
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>01/09/2009</t>
+        </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -6022,8 +6636,10 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
-        <v>40087</v>
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>01/10/2009</t>
+        </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -6040,8 +6656,10 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
-        <v>40118</v>
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>01/11/2009</t>
+        </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -6058,8 +6676,10 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
-        <v>40148</v>
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>01/12/2009</t>
+        </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -6076,8 +6696,10 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="2" t="n">
-        <v>40179</v>
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>01/01/2010</t>
+        </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -6094,8 +6716,10 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="2" t="n">
-        <v>40210</v>
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>01/02/2010</t>
+        </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -6112,8 +6736,10 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="2" t="n">
-        <v>40238</v>
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>01/03/2010</t>
+        </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -6130,8 +6756,10 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="2" t="n">
-        <v>40269</v>
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>01/04/2010</t>
+        </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -6148,8 +6776,10 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="2" t="n">
-        <v>40299</v>
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>01/05/2010</t>
+        </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -6166,8 +6796,10 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="2" t="n">
-        <v>40330</v>
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>01/06/2010</t>
+        </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -6184,8 +6816,10 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="n">
-        <v>40360</v>
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -6202,8 +6836,10 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
-        <v>40391</v>
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>01/08/2010</t>
+        </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -6220,8 +6856,10 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
-        <v>40422</v>
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>01/09/2010</t>
+        </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -6238,8 +6876,10 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
-        <v>40452</v>
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>01/10/2010</t>
+        </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -6256,8 +6896,10 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
-        <v>40483</v>
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>01/11/2010</t>
+        </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -6274,8 +6916,10 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
-        <v>40513</v>
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>01/12/2010</t>
+        </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -6292,8 +6936,10 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
-        <v>40179</v>
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>01/01/2010</t>
+        </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -6310,8 +6956,10 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
-        <v>40210</v>
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>01/02/2010</t>
+        </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -6328,8 +6976,10 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
-        <v>40238</v>
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>01/03/2010</t>
+        </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -6346,8 +6996,10 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="2" t="n">
-        <v>40269</v>
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>01/04/2010</t>
+        </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -6364,8 +7016,10 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
-        <v>40299</v>
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>01/05/2010</t>
+        </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -6382,8 +7036,10 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
-        <v>40330</v>
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>01/06/2010</t>
+        </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -6400,8 +7056,10 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
-        <v>40360</v>
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>01/07/2010</t>
+        </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -6418,8 +7076,10 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
-        <v>40391</v>
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>01/08/2010</t>
+        </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -6436,8 +7096,10 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="2" t="n">
-        <v>40422</v>
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>01/09/2010</t>
+        </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -6454,8 +7116,10 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="2" t="n">
-        <v>40452</v>
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>01/10/2010</t>
+        </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -6472,8 +7136,10 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="2" t="n">
-        <v>40483</v>
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>01/11/2010</t>
+        </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -6490,8 +7156,10 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="2" t="n">
-        <v>40513</v>
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>01/12/2010</t>
+        </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -6508,8 +7176,10 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="2" t="n">
-        <v>40544</v>
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>01/01/2011</t>
+        </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -6526,8 +7196,10 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="2" t="n">
-        <v>40575</v>
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>01/02/2011</t>
+        </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -6544,8 +7216,10 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="2" t="n">
-        <v>40603</v>
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>01/03/2011</t>
+        </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -6562,8 +7236,10 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
-        <v>40634</v>
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>01/04/2011</t>
+        </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -6580,8 +7256,10 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
-        <v>40664</v>
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>01/05/2011</t>
+        </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -6598,8 +7276,10 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
-        <v>40695</v>
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>01/06/2011</t>
+        </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -6616,8 +7296,10 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
-        <v>40725</v>
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>01/07/2011</t>
+        </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -6634,8 +7316,10 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
-        <v>40756</v>
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>01/08/2011</t>
+        </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -6652,8 +7336,10 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="2" t="n">
-        <v>40787</v>
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>01/09/2011</t>
+        </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -6670,8 +7356,10 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="2" t="n">
-        <v>40817</v>
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>01/10/2011</t>
+        </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -6688,8 +7376,10 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="2" t="n">
-        <v>40848</v>
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>01/11/2011</t>
+        </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -6706,8 +7396,10 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="2" t="n">
-        <v>40878</v>
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>01/12/2011</t>
+        </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -6724,8 +7416,10 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="2" t="n">
-        <v>40544</v>
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>01/01/2011</t>
+        </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -6742,8 +7436,10 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="2" t="n">
-        <v>40575</v>
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>01/02/2011</t>
+        </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -6760,8 +7456,10 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="2" t="n">
-        <v>40603</v>
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>01/03/2011</t>
+        </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -6778,8 +7476,10 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="n">
-        <v>40634</v>
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>01/04/2011</t>
+        </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -6796,8 +7496,10 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="2" t="n">
-        <v>40664</v>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>01/05/2011</t>
+        </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -6814,8 +7516,10 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="2" t="n">
-        <v>40695</v>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>01/06/2011</t>
+        </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -6832,8 +7536,10 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="2" t="n">
-        <v>40725</v>
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>01/07/2011</t>
+        </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -6850,8 +7556,10 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="2" t="n">
-        <v>40756</v>
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>01/08/2011</t>
+        </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -6868,8 +7576,10 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="2" t="n">
-        <v>40787</v>
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>01/09/2011</t>
+        </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -6886,8 +7596,10 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="2" t="n">
-        <v>40817</v>
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>01/10/2011</t>
+        </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -6904,8 +7616,10 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="2" t="n">
-        <v>40848</v>
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>01/11/2011</t>
+        </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -6922,8 +7636,10 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="2" t="n">
-        <v>40878</v>
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>01/12/2011</t>
+        </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -6940,8 +7656,10 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="2" t="n">
-        <v>40909</v>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -6958,8 +7676,10 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="2" t="n">
-        <v>40940</v>
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>01/02/2012</t>
+        </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -6976,8 +7696,10 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="2" t="n">
-        <v>40969</v>
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>01/03/2012</t>
+        </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -6994,8 +7716,10 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="2" t="n">
-        <v>41000</v>
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>01/04/2012</t>
+        </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -7012,8 +7736,10 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="2" t="n">
-        <v>41030</v>
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>01/05/2012</t>
+        </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -7030,8 +7756,10 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="2" t="n">
-        <v>41061</v>
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>01/06/2012</t>
+        </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -7048,8 +7776,10 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="2" t="n">
-        <v>41091</v>
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -7066,8 +7796,10 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="2" t="n">
-        <v>41122</v>
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>01/08/2012</t>
+        </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -7084,8 +7816,10 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="2" t="n">
-        <v>41153</v>
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>01/09/2012</t>
+        </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -7102,8 +7836,10 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="2" t="n">
-        <v>41183</v>
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>01/10/2012</t>
+        </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -7120,8 +7856,10 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="2" t="n">
-        <v>41214</v>
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>01/11/2012</t>
+        </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -7138,8 +7876,10 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="2" t="n">
-        <v>41244</v>
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>01/12/2012</t>
+        </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -7156,8 +7896,10 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="2" t="n">
-        <v>40909</v>
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -7174,8 +7916,10 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="2" t="n">
-        <v>40940</v>
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>01/02/2012</t>
+        </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -7192,8 +7936,10 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="2" t="n">
-        <v>40969</v>
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>01/03/2012</t>
+        </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -7210,8 +7956,10 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="2" t="n">
-        <v>41000</v>
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>01/04/2012</t>
+        </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -7228,8 +7976,10 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="2" t="n">
-        <v>41030</v>
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>01/05/2012</t>
+        </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -7246,8 +7996,10 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="2" t="n">
-        <v>41061</v>
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>01/06/2012</t>
+        </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -7264,8 +8016,10 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="n">
-        <v>41091</v>
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -7282,8 +8036,10 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="2" t="n">
-        <v>41122</v>
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>01/08/2012</t>
+        </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -7300,8 +8056,10 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="2" t="n">
-        <v>41153</v>
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>01/09/2012</t>
+        </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -7318,8 +8076,10 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="2" t="n">
-        <v>41183</v>
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>01/10/2012</t>
+        </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -7336,8 +8096,10 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="2" t="n">
-        <v>41214</v>
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>01/11/2012</t>
+        </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -7354,8 +8116,10 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="2" t="n">
-        <v>41244</v>
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>01/12/2012</t>
+        </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -7372,8 +8136,10 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="2" t="n">
-        <v>41275</v>
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -7390,8 +8156,10 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
-        <v>41306</v>
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>01/02/2013</t>
+        </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -7408,8 +8176,10 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
-        <v>41334</v>
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>01/03/2013</t>
+        </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -7426,8 +8196,10 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
-        <v>41365</v>
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>01/04/2013</t>
+        </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -7444,8 +8216,10 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
-        <v>41395</v>
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>01/05/2013</t>
+        </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -7462,8 +8236,10 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="2" t="n">
-        <v>41426</v>
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>01/06/2013</t>
+        </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -7480,8 +8256,10 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="2" t="n">
-        <v>41456</v>
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>01/07/2013</t>
+        </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -7498,8 +8276,10 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="2" t="n">
-        <v>41487</v>
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>01/08/2013</t>
+        </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -7516,8 +8296,10 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="2" t="n">
-        <v>41518</v>
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>01/09/2013</t>
+        </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -7534,8 +8316,10 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="2" t="n">
-        <v>41548</v>
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -7552,8 +8336,10 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="2" t="n">
-        <v>41579</v>
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>01/11/2013</t>
+        </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -7570,8 +8356,10 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="2" t="n">
-        <v>41609</v>
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>01/12/2013</t>
+        </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -7588,8 +8376,10 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="2" t="n">
-        <v>41275</v>
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -7606,8 +8396,10 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="2" t="n">
-        <v>41306</v>
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>01/02/2013</t>
+        </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -7624,8 +8416,10 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="2" t="n">
-        <v>41334</v>
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>01/03/2013</t>
+        </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -7642,8 +8436,10 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="2" t="n">
-        <v>41365</v>
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>01/04/2013</t>
+        </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -7660,8 +8456,10 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="2" t="n">
-        <v>41395</v>
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>01/05/2013</t>
+        </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -7678,8 +8476,10 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="2" t="n">
-        <v>41426</v>
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>01/06/2013</t>
+        </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -7696,8 +8496,10 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="2" t="n">
-        <v>41456</v>
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>01/07/2013</t>
+        </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -7714,8 +8516,10 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="2" t="n">
-        <v>41487</v>
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>01/08/2013</t>
+        </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -7732,8 +8536,10 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="2" t="n">
-        <v>41518</v>
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>01/09/2013</t>
+        </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -7750,8 +8556,10 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="2" t="n">
-        <v>41548</v>
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -7768,8 +8576,10 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="2" t="n">
-        <v>41579</v>
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>01/11/2013</t>
+        </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -7786,8 +8596,10 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="2" t="n">
-        <v>41609</v>
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>01/12/2013</t>
+        </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -7804,8 +8616,10 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="n">
-        <v>41640</v>
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -7822,8 +8636,10 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="2" t="n">
-        <v>41671</v>
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>01/02/2014</t>
+        </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -7840,8 +8656,10 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="2" t="n">
-        <v>41699</v>
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>01/03/2014</t>
+        </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -7858,8 +8676,10 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="2" t="n">
-        <v>41730</v>
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>01/04/2014</t>
+        </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -7876,8 +8696,10 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="2" t="n">
-        <v>41760</v>
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>01/05/2014</t>
+        </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -7894,8 +8716,10 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="2" t="n">
-        <v>41791</v>
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>01/06/2014</t>
+        </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -7912,8 +8736,10 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="2" t="n">
-        <v>41821</v>
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -7930,8 +8756,10 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="2" t="n">
-        <v>41852</v>
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>01/08/2014</t>
+        </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -7948,8 +8776,10 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="2" t="n">
-        <v>41883</v>
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>01/09/2014</t>
+        </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -7966,8 +8796,10 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="2" t="n">
-        <v>41913</v>
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>01/10/2014</t>
+        </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -7984,8 +8816,10 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="2" t="n">
-        <v>41944</v>
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>01/11/2014</t>
+        </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -8002,8 +8836,10 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="2" t="n">
-        <v>41974</v>
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>01/12/2014</t>
+        </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -8020,8 +8856,10 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="2" t="n">
-        <v>41640</v>
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -8038,8 +8876,10 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="2" t="n">
-        <v>41671</v>
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>01/02/2014</t>
+        </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -8056,8 +8896,10 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="2" t="n">
-        <v>41699</v>
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>01/03/2014</t>
+        </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -8074,8 +8916,10 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="2" t="n">
-        <v>41730</v>
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>01/04/2014</t>
+        </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -8092,8 +8936,10 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="2" t="n">
-        <v>41760</v>
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>01/05/2014</t>
+        </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -8110,8 +8956,10 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="2" t="n">
-        <v>41791</v>
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>01/06/2014</t>
+        </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -8128,8 +8976,10 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="2" t="n">
-        <v>41821</v>
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -8146,8 +8996,10 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="2" t="n">
-        <v>41852</v>
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>01/08/2014</t>
+        </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -8164,8 +9016,10 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="2" t="n">
-        <v>41883</v>
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>01/09/2014</t>
+        </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -8182,8 +9036,10 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="2" t="n">
-        <v>41913</v>
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>01/10/2014</t>
+        </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -8200,8 +9056,10 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="2" t="n">
-        <v>41944</v>
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>01/11/2014</t>
+        </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -8218,8 +9076,10 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="2" t="n">
-        <v>41974</v>
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>01/12/2014</t>
+        </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -8236,8 +9096,10 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="n">
-        <v>42005</v>
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -8254,8 +9116,10 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>42036</v>
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>01/02/2015</t>
+        </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -8272,8 +9136,10 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="2" t="n">
-        <v>42064</v>
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -8290,8 +9156,10 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="2" t="n">
-        <v>42095</v>
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>01/04/2015</t>
+        </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -8308,8 +9176,10 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="2" t="n">
-        <v>42125</v>
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>01/05/2015</t>
+        </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -8326,8 +9196,10 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="2" t="n">
-        <v>42156</v>
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>01/06/2015</t>
+        </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -8344,8 +9216,10 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="2" t="n">
-        <v>42186</v>
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>01/07/2015</t>
+        </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -8362,8 +9236,10 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="2" t="n">
-        <v>42217</v>
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>01/08/2015</t>
+        </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -8380,8 +9256,10 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="2" t="n">
-        <v>42248</v>
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>01/09/2015</t>
+        </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -8398,8 +9276,10 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="2" t="n">
-        <v>42278</v>
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -8416,8 +9296,10 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="2" t="n">
-        <v>42309</v>
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -8434,8 +9316,10 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="2" t="n">
-        <v>42339</v>
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -8452,8 +9336,10 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="2" t="n">
-        <v>42005</v>
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -8470,8 +9356,10 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
-        <v>42036</v>
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>01/02/2015</t>
+        </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -8488,8 +9376,10 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
-        <v>42064</v>
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -8506,8 +9396,10 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
-        <v>42095</v>
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>01/04/2015</t>
+        </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -8524,8 +9416,10 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
-        <v>42125</v>
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>01/05/2015</t>
+        </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -8542,8 +9436,10 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="2" t="n">
-        <v>42156</v>
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>01/06/2015</t>
+        </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -8560,8 +9456,10 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="2" t="n">
-        <v>42186</v>
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>01/07/2015</t>
+        </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -8578,8 +9476,10 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
-        <v>42217</v>
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>01/08/2015</t>
+        </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -8596,8 +9496,10 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
-        <v>42248</v>
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>01/09/2015</t>
+        </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -8614,8 +9516,10 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
-        <v>42278</v>
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -8632,8 +9536,10 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
-        <v>42309</v>
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -8650,8 +9556,10 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
-        <v>42339</v>
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -8668,8 +9576,10 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
-        <v>42370</v>
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -8686,8 +9596,10 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
-        <v>42401</v>
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>01/02/2016</t>
+        </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -8704,8 +9616,10 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="2" t="n">
-        <v>42430</v>
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>01/03/2016</t>
+        </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -8722,8 +9636,10 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="n">
-        <v>42461</v>
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -8740,8 +9656,10 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="2" t="n">
-        <v>42491</v>
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>01/05/2016</t>
+        </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -8758,8 +9676,10 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="2" t="n">
-        <v>42522</v>
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>01/06/2016</t>
+        </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -8776,8 +9696,10 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="2" t="n">
-        <v>42552</v>
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -8794,8 +9716,10 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="2" t="n">
-        <v>42583</v>
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>01/08/2016</t>
+        </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -8812,8 +9736,10 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="2" t="n">
-        <v>42614</v>
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -8830,8 +9756,10 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="2" t="n">
-        <v>42644</v>
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -8848,8 +9776,10 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
-        <v>42675</v>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>01/11/2016</t>
+        </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -8866,8 +9796,10 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
-        <v>42705</v>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>01/12/2016</t>
+        </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -8884,8 +9816,10 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
-        <v>42370</v>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -8902,8 +9836,10 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="n">
-        <v>42401</v>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>01/02/2016</t>
+        </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -8920,8 +9856,10 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="2" t="n">
-        <v>42430</v>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>01/03/2016</t>
+        </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -8938,8 +9876,10 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="n">
-        <v>42461</v>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -8956,8 +9896,10 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="2" t="n">
-        <v>42491</v>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>01/05/2016</t>
+        </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -8974,8 +9916,10 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="2" t="n">
-        <v>42522</v>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>01/06/2016</t>
+        </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -8992,8 +9936,10 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="2" t="n">
-        <v>42552</v>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -9010,8 +9956,10 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="2" t="n">
-        <v>42583</v>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>01/08/2016</t>
+        </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -9028,8 +9976,10 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="2" t="n">
-        <v>42614</v>
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -9046,8 +9996,10 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="2" t="n">
-        <v>42644</v>
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -9064,8 +10016,10 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="2" t="n">
-        <v>42675</v>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>01/11/2016</t>
+        </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -9082,8 +10036,10 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="2" t="n">
-        <v>42705</v>
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>01/12/2016</t>
+        </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -9100,8 +10056,10 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="2" t="n">
-        <v>42736</v>
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -9118,8 +10076,10 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
-        <v>42767</v>
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>01/02/2017</t>
+        </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -9136,8 +10096,10 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
-        <v>42795</v>
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -9154,8 +10116,10 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="2" t="n">
-        <v>42826</v>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>01/04/2017</t>
+        </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -9172,8 +10136,10 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="2" t="n">
-        <v>42856</v>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>01/05/2017</t>
+        </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -9190,8 +10156,10 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="2" t="n">
-        <v>42887</v>
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>01/06/2017</t>
+        </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -9208,8 +10176,10 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="n">
-        <v>42917</v>
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>01/07/2017</t>
+        </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -9226,8 +10196,10 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="2" t="n">
-        <v>42948</v>
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>01/08/2017</t>
+        </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -9244,8 +10216,10 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
-        <v>42979</v>
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>01/09/2017</t>
+        </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -9262,8 +10236,10 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
-        <v>43009</v>
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -9280,8 +10256,10 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
-        <v>43040</v>
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>01/11/2017</t>
+        </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -9298,8 +10276,10 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
-        <v>43070</v>
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>01/12/2017</t>
+        </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -9316,8 +10296,10 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
-        <v>42736</v>
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -9334,8 +10316,10 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
-        <v>42767</v>
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>01/02/2017</t>
+        </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -9352,8 +10336,10 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
-        <v>42795</v>
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -9370,8 +10356,10 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="2" t="n">
-        <v>42826</v>
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>01/04/2017</t>
+        </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -9388,8 +10376,10 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="2" t="n">
-        <v>42856</v>
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>01/05/2017</t>
+        </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -9406,8 +10396,10 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="2" t="n">
-        <v>42887</v>
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>01/06/2017</t>
+        </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -9424,8 +10416,10 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="2" t="n">
-        <v>42917</v>
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>01/07/2017</t>
+        </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -9442,8 +10436,10 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="2" t="n">
-        <v>42948</v>
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>01/08/2017</t>
+        </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -9460,8 +10456,10 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="2" t="n">
-        <v>42979</v>
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>01/09/2017</t>
+        </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -9478,8 +10476,10 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="2" t="n">
-        <v>43009</v>
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -9496,8 +10496,10 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="2" t="n">
-        <v>43040</v>
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>01/11/2017</t>
+        </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -9514,8 +10516,10 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="2" t="n">
-        <v>43070</v>
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>01/12/2017</t>
+        </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -9532,8 +10536,10 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="2" t="n">
-        <v>43101</v>
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -9550,8 +10556,10 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="2" t="n">
-        <v>43132</v>
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>01/02/2018</t>
+        </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -9568,8 +10576,10 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="2" t="n">
-        <v>43160</v>
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>01/03/2018</t>
+        </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -9586,8 +10596,10 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="2" t="n">
-        <v>43191</v>
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>01/04/2018</t>
+        </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -9604,8 +10616,10 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="2" t="n">
-        <v>43221</v>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>01/05/2018</t>
+        </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -9622,8 +10636,10 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="2" t="n">
-        <v>43252</v>
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>01/06/2018</t>
+        </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -9640,8 +10656,10 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="2" t="n">
-        <v>43282</v>
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -9658,8 +10676,10 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="2" t="n">
-        <v>43313</v>
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>01/08/2018</t>
+        </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -9676,8 +10696,10 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="2" t="n">
-        <v>43344</v>
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>01/09/2018</t>
+        </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -9694,8 +10716,10 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="n">
-        <v>43374</v>
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -9712,8 +10736,10 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="2" t="n">
-        <v>43405</v>
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>01/11/2018</t>
+        </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -9730,8 +10756,10 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="2" t="n">
-        <v>43435</v>
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>01/12/2018</t>
+        </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -9748,8 +10776,10 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="2" t="n">
-        <v>43101</v>
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -9766,8 +10796,10 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="2" t="n">
-        <v>43132</v>
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>01/02/2018</t>
+        </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -9784,8 +10816,10 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="2" t="n">
-        <v>43160</v>
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>01/03/2018</t>
+        </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -9802,8 +10836,10 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="2" t="n">
-        <v>43191</v>
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>01/04/2018</t>
+        </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -9820,8 +10856,10 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="2" t="n">
-        <v>43221</v>
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>01/05/2018</t>
+        </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -9838,8 +10876,10 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="2" t="n">
-        <v>43252</v>
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>01/06/2018</t>
+        </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -9856,8 +10896,10 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="2" t="n">
-        <v>43282</v>
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -9874,8 +10916,10 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="2" t="n">
-        <v>43313</v>
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>01/08/2018</t>
+        </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -9892,8 +10936,10 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="2" t="n">
-        <v>43344</v>
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>01/09/2018</t>
+        </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -9910,8 +10956,10 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="2" t="n">
-        <v>43374</v>
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -9928,8 +10976,10 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="2" t="n">
-        <v>43405</v>
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>01/11/2018</t>
+        </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -9946,8 +10996,10 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="2" t="n">
-        <v>43435</v>
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>01/12/2018</t>
+        </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -9964,8 +11016,10 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="2" t="n">
-        <v>43466</v>
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -9982,8 +11036,10 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="2" t="n">
-        <v>43497</v>
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>01/02/2019</t>
+        </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -10000,8 +11056,10 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="2" t="n">
-        <v>43525</v>
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>01/03/2019</t>
+        </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -10018,8 +11076,10 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="2" t="n">
-        <v>43556</v>
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>01/04/2019</t>
+        </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -10036,8 +11096,10 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="2" t="n">
-        <v>43586</v>
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>01/05/2019</t>
+        </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -10054,8 +11116,10 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="2" t="n">
-        <v>43617</v>
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>01/06/2019</t>
+        </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -10072,8 +11136,10 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="2" t="n">
-        <v>43647</v>
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -10090,8 +11156,10 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="2" t="n">
-        <v>43678</v>
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>01/08/2019</t>
+        </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -10108,8 +11176,10 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="2" t="n">
-        <v>43709</v>
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>01/09/2019</t>
+        </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -10126,8 +11196,10 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="2" t="n">
-        <v>43739</v>
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -10144,8 +11216,10 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="2" t="n">
-        <v>43770</v>
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>01/11/2019</t>
+        </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -10162,8 +11236,10 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="2" t="n">
-        <v>43800</v>
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>01/12/2019</t>
+        </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -10180,8 +11256,10 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="2" t="n">
-        <v>43466</v>
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -10198,8 +11276,10 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="2" t="n">
-        <v>43497</v>
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>01/02/2019</t>
+        </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -10216,8 +11296,10 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="2" t="n">
-        <v>43525</v>
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>01/03/2019</t>
+        </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -10234,8 +11316,10 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="2" t="n">
-        <v>43556</v>
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>01/04/2019</t>
+        </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -10252,8 +11336,10 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="2" t="n">
-        <v>43586</v>
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>01/05/2019</t>
+        </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -10270,8 +11356,10 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="2" t="n">
-        <v>43617</v>
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>01/06/2019</t>
+        </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -10288,8 +11376,10 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="2" t="n">
-        <v>43647</v>
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -10306,8 +11396,10 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="2" t="n">
-        <v>43678</v>
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>01/08/2019</t>
+        </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -10324,8 +11416,10 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="2" t="n">
-        <v>43709</v>
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>01/09/2019</t>
+        </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -10342,8 +11436,10 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="2" t="n">
-        <v>43739</v>
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -10360,8 +11456,10 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="2" t="n">
-        <v>43770</v>
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>01/11/2019</t>
+        </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -10378,8 +11476,10 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="2" t="n">
-        <v>43800</v>
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>01/12/2019</t>
+        </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -10396,8 +11496,10 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="2" t="n">
-        <v>43831</v>
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -10414,8 +11516,10 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="2" t="n">
-        <v>43862</v>
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>01/02/2020</t>
+        </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -10432,8 +11536,10 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="2" t="n">
-        <v>43891</v>
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>01/03/2020</t>
+        </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -10450,8 +11556,10 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="2" t="n">
-        <v>43922</v>
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -10468,8 +11576,10 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="2" t="n">
-        <v>43952</v>
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -10486,8 +11596,10 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="2" t="n">
-        <v>43983</v>
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -10504,8 +11616,10 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="2" t="n">
-        <v>44013</v>
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -10522,8 +11636,10 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="2" t="n">
-        <v>44044</v>
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>01/08/2020</t>
+        </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -10540,8 +11656,10 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="2" t="n">
-        <v>44075</v>
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>01/09/2020</t>
+        </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -10558,8 +11676,10 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="2" t="n">
-        <v>44105</v>
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -10576,8 +11696,10 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="2" t="n">
-        <v>44136</v>
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>01/11/2020</t>
+        </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -10594,8 +11716,10 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="2" t="n">
-        <v>44166</v>
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>01/12/2020</t>
+        </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -10612,8 +11736,10 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="2" t="n">
-        <v>43831</v>
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -10630,8 +11756,10 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="2" t="n">
-        <v>43862</v>
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>01/02/2020</t>
+        </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -10648,8 +11776,10 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="2" t="n">
-        <v>43891</v>
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>01/03/2020</t>
+        </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -10666,8 +11796,10 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="2" t="n">
-        <v>43922</v>
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -10684,8 +11816,10 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="2" t="n">
-        <v>43952</v>
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -10702,8 +11836,10 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="2" t="n">
-        <v>43983</v>
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -10720,8 +11856,10 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="2" t="n">
-        <v>44013</v>
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -10738,8 +11876,10 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="2" t="n">
-        <v>44044</v>
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>01/08/2020</t>
+        </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -10756,8 +11896,10 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="2" t="n">
-        <v>44075</v>
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>01/09/2020</t>
+        </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -10774,8 +11916,10 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="2" t="n">
-        <v>44105</v>
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -10792,8 +11936,10 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="2" t="n">
-        <v>44136</v>
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>01/11/2020</t>
+        </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -10810,8 +11956,10 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="2" t="n">
-        <v>44166</v>
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>01/12/2020</t>
+        </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -10828,8 +11976,10 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="2" t="n">
-        <v>44197</v>
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -10846,8 +11996,10 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="2" t="n">
-        <v>44228</v>
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -10864,8 +12016,10 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="2" t="n">
-        <v>44256</v>
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -10882,8 +12036,10 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="2" t="n">
-        <v>44287</v>
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -10900,8 +12056,10 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="2" t="n">
-        <v>44317</v>
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>01/05/2021</t>
+        </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -10918,8 +12076,10 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="2" t="n">
-        <v>44348</v>
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>01/06/2021</t>
+        </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -10936,8 +12096,10 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="2" t="n">
-        <v>44378</v>
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -10954,8 +12116,10 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="2" t="n">
-        <v>44409</v>
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>01/08/2021</t>
+        </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -10972,8 +12136,10 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="2" t="n">
-        <v>44440</v>
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>01/09/2021</t>
+        </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -10990,8 +12156,10 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="2" t="n">
-        <v>44470</v>
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -11008,8 +12176,10 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="2" t="n">
-        <v>44501</v>
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>01/11/2021</t>
+        </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -11026,8 +12196,10 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="2" t="n">
-        <v>44531</v>
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -11044,8 +12216,10 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="2" t="n">
-        <v>44197</v>
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -11062,8 +12236,10 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="2" t="n">
-        <v>44228</v>
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -11080,8 +12256,10 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="2" t="n">
-        <v>44256</v>
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -11098,8 +12276,10 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="2" t="n">
-        <v>44287</v>
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -11116,8 +12296,10 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="2" t="n">
-        <v>44317</v>
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>01/05/2021</t>
+        </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -11134,8 +12316,10 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="2" t="n">
-        <v>44348</v>
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>01/06/2021</t>
+        </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -11152,8 +12336,10 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="2" t="n">
-        <v>44378</v>
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -11170,8 +12356,10 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="2" t="n">
-        <v>44409</v>
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>01/08/2021</t>
+        </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -11188,8 +12376,10 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="2" t="n">
-        <v>44440</v>
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>01/09/2021</t>
+        </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -11206,8 +12396,10 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="2" t="n">
-        <v>44470</v>
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -11224,8 +12416,10 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="2" t="n">
-        <v>44501</v>
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>01/11/2021</t>
+        </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -11242,8 +12436,10 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="2" t="n">
-        <v>44531</v>
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -11260,8 +12456,10 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="2" t="n">
-        <v>44562</v>
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -11278,8 +12476,10 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="2" t="n">
-        <v>44593</v>
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -11296,8 +12496,10 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="2" t="n">
-        <v>44621</v>
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -11314,8 +12516,10 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="2" t="n">
-        <v>44652</v>
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -11332,8 +12536,10 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="2" t="n">
-        <v>44682</v>
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>01/05/2022</t>
+        </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -11350,8 +12556,10 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="2" t="n">
-        <v>44713</v>
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>01/06/2022</t>
+        </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -11368,8 +12576,10 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="2" t="n">
-        <v>44743</v>
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -11386,8 +12596,10 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="2" t="n">
-        <v>44774</v>
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>01/08/2022</t>
+        </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -11404,8 +12616,10 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="2" t="n">
-        <v>44805</v>
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -11422,8 +12636,10 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="2" t="n">
-        <v>44835</v>
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -11440,8 +12656,10 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="2" t="n">
-        <v>44866</v>
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>01/11/2022</t>
+        </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -11458,8 +12676,10 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="2" t="n">
-        <v>44896</v>
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -11476,8 +12696,10 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="2" t="n">
-        <v>44562</v>
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -11494,8 +12716,10 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="2" t="n">
-        <v>44593</v>
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -11512,8 +12736,10 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="2" t="n">
-        <v>44621</v>
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -11530,8 +12756,10 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="2" t="n">
-        <v>44652</v>
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -11548,8 +12776,10 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="2" t="n">
-        <v>44682</v>
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>01/05/2022</t>
+        </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -11566,8 +12796,10 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="2" t="n">
-        <v>44713</v>
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>01/06/2022</t>
+        </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -11584,8 +12816,10 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="2" t="n">
-        <v>44743</v>
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -11602,8 +12836,10 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="2" t="n">
-        <v>44774</v>
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>01/08/2022</t>
+        </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -11620,8 +12856,10 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="2" t="n">
-        <v>44805</v>
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -11638,8 +12876,10 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="2" t="n">
-        <v>44835</v>
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -11656,8 +12896,10 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="2" t="n">
-        <v>44866</v>
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>01/11/2022</t>
+        </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -11674,8 +12916,10 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="2" t="n">
-        <v>44896</v>
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -11692,8 +12936,10 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="2" t="n">
-        <v>44927</v>
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -11710,8 +12956,10 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="2" t="n">
-        <v>44958</v>
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>01/02/2023</t>
+        </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -11728,8 +12976,10 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="2" t="n">
-        <v>44986</v>
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>01/03/2023</t>
+        </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -11746,8 +12996,10 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="2" t="n">
-        <v>45017</v>
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -11764,8 +13016,10 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="2" t="n">
-        <v>45047</v>
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>01/05/2023</t>
+        </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -11782,8 +13036,10 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="2" t="n">
-        <v>45078</v>
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
+        </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -11800,8 +13056,10 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="2" t="n">
-        <v>45108</v>
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -11818,8 +13076,10 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="2" t="n">
-        <v>45139</v>
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>01/08/2023</t>
+        </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -11836,8 +13096,10 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="2" t="n">
-        <v>45170</v>
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -11854,8 +13116,10 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="2" t="n">
-        <v>45200</v>
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -11872,8 +13136,10 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="2" t="n">
-        <v>45231</v>
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>01/11/2023</t>
+        </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -11890,8 +13156,10 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="2" t="n">
-        <v>45261</v>
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -11908,8 +13176,10 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="2" t="n">
-        <v>44927</v>
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -11926,8 +13196,10 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="2" t="n">
-        <v>44958</v>
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>01/02/2023</t>
+        </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -11944,8 +13216,10 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="2" t="n">
-        <v>44986</v>
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>01/03/2023</t>
+        </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -11962,8 +13236,10 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="2" t="n">
-        <v>45017</v>
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -11980,8 +13256,10 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="2" t="n">
-        <v>45047</v>
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>01/05/2023</t>
+        </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -11998,8 +13276,10 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="2" t="n">
-        <v>45078</v>
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
+        </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -12016,8 +13296,10 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="2" t="n">
-        <v>45108</v>
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -12034,8 +13316,10 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="2" t="n">
-        <v>45139</v>
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>01/08/2023</t>
+        </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -12052,8 +13336,10 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="2" t="n">
-        <v>45170</v>
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -12070,8 +13356,10 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="2" t="n">
-        <v>45200</v>
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -12088,8 +13376,10 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="2" t="n">
-        <v>45231</v>
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>01/11/2023</t>
+        </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -12106,8 +13396,10 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="2" t="n">
-        <v>45261</v>
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D649"/>
+  <dimension ref="A1:D673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13147,7 +13147,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>806.228</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>798.898</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>36945.207</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -13407,9 +13407,489 @@
         </is>
       </c>
       <c r="C649" t="n">
+        <v>39631.933</v>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>747.532</v>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>721.506</v>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>697.162</v>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>658.6369999999999</v>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
         <v>0</v>
       </c>
-      <c r="D649" t="inlineStr">
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>0</v>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>0</v>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>0</v>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>0</v>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>0</v>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>0</v>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>0</v>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>42759.883</v>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>40222.657</v>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>44130.078</v>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>37515.475</v>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>0</v>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>0</v>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>0</v>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>0</v>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>0</v>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>0</v>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>0</v>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>0</v>
+      </c>
+      <c r="D673" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>700.189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>38044.743</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>680.301</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>37515.475</v>
+        <v>43098.723</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>38044.743</v>
+        <v>42046.903</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>41158.794</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13547,7 +13547,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>667.239</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>52743.515</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13567,7 +13567,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>641.3</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>48985.541</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13587,7 +13587,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>614.182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>50237.962</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>700.189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>680.301</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>667.239</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>641.3</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>614.182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>652.98</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>37515.475</v>
+        <v>43098.723</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>42046.903</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>41158.794</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>52743.515</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>48985.541</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>50237.962</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>54636.24</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>652.98</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>54636.24</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>591.235</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>54271.37</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13647,7 +13647,7 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>598.8579999999999</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>61800.031</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D673"/>
+  <dimension ref="A1:D697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13895,6 +13895,486 @@
         </is>
       </c>
     </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>558.401</v>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>150.578</v>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>0</v>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>0</v>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>0</v>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>0</v>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>0</v>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>0</v>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>0</v>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>0</v>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>0</v>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>01/12/2025</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>0</v>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>58991.751</v>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>51664.747</v>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>0</v>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>0</v>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>0</v>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>0</v>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>0</v>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>0</v>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>0</v>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>0</v>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>0</v>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>01/12/2025</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>TERRA</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>0</v>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13947,7 +13947,7 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>53.467</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>0</v>
+        <v>60612.155</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>644.827</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>475.433</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>479.041</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>452.356</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>59171.13</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>66448.999</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>64488.389</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>0</v>
+        <v>65194.424</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>

--- a/Data/g8.1.xlsx
+++ b/Data/g8.1.xlsx
@@ -14047,7 +14047,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>456.183</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>0</v>
+        <v>66205.109</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
